--- a/medicine/Mort/Décès_en_1912/Décès_en_1912.xlsx
+++ b/medicine/Mort/Décès_en_1912/Décès_en_1912.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1912</t>
+          <t>Décès_en_1912</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1912</t>
+          <t>Décès_en_1912</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,16 +540,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Édouard Béliard, peintre français, maire d'Étampes (° 1832).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Édouard Béliard, peintre français, maire d'Étampes (° 1832).
 Médéric Bottin, peintre français (° 1874).
-Paul-Édouard Crébassa, peintre et lithographe français (° 1870).
-Janvier
-2 janvier : Stanislas-Henri Rouart, ingénieur, industriel, peintre et collectionneur français (° 1833).
+Paul-Édouard Crébassa, peintre et lithographe français (° 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Stanislas-Henri Rouart, ingénieur, industriel, peintre et collectionneur français (° 1833).
 5 janvier : Valentin Serov, peintre russe (° 19 janvier 1865).
-24 janvier : Johannes Hermanus Barend Koekkoek, peintre néerlandais (° 6 juillet 1840).
-Février
-6 février : Albert Braut, peintre français (° 1874).
+24 janvier : Johannes Hermanus Barend Koekkoek, peintre néerlandais (° 6 juillet 1840).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 février : Albert Braut, peintre français (° 1874).
 8 février : Pauline Delacroix-Garnier, peintre française (° 9 juin 1859).
 9 février : Giuseppe Costa, peintre italien (° 6 avril 1852).
 12 février : Léon Dardenne, peintre, dessinateur et affichiste belge (° 29 octobre 1865).
@@ -545,17 +630,85 @@
 18 février : Ivan Troutnev, peintre russe (° 1827).
 19 février : Ferdinand de Dartein, ingénieur des ponts et chaussées et architecte français, également dessinateur, peintre, graveur et historien de l'art (° 9 février 1838).
 24 février : Jules Lefebvre, peintre français, professeur à l'École des beaux-arts de Paris et à l'Académie Julian (° 14 mars 1834).
-26 février : Georges Le Febvre, peintre français (° 14 octobre 1861).
-Mars
-3 mars : Raymond Saleilles, juriste français (° 1855).
+26 février : Georges Le Febvre, peintre français (° 14 octobre 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars : Raymond Saleilles, juriste français (° 1855).
 17 mars : Alexis Kreyder, peintre français (° 21 octobre 1839).
 19 mars : Franz Poenitz, harpiste et compositeur allemand (° 17 août 1850).
 21 mars : Pierre-Nicolas Tourgueneff, sculpteur et peintre français (° 4 avril 1853).
 26 mars : Ernest Legrand, sculpteur et peintre français (° 4 octobre 1872).
 29 mars : John Gerrard Keulemans, peintre et illustrateur néerlandais (° 1842).
-30 mars : Karl May, écrivain allemand (° 25 février 1842).
-Avril
-4 avril : Knut Ekvall, peintre suédois (° 3 avril 1843).
+30 mars : Karl May, écrivain allemand (° 25 février 1842).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4 avril : Knut Ekvall, peintre suédois (° 3 avril 1843).
 13 avril : Takuboku Ishikawa, poète japonais (° 20 février 1886).
 15 avril
 Hudson Allison (ainsi que sa femme Bess et sa fille Lorraine), courtier de banque canadien, victime du naufrage du Titanic (° 9 décembre 1881).
@@ -580,9 +733,43 @@
 Charles Duane Williams, avocat américain en Suisse et fondateur de la Fédération internationale de tennis, victime du naufrage du Titanic (° 11 août 1860).
 et, en sus de ces 23 célébrités, environ 1468 personnes inconnues, victimes du naufrage du Titanic.
 19 avril : Hugo von Douglas, mémorialiste allemand (° 19 avril 1837).
-21 avril : Bram Stoker, écrivain irlandais auteur de Dracula (° 8 novembre 1847).
-Mai
-9 mai : Carl Friese, acteur et metteur en scène allemand (° 5 octobre 1855).
+21 avril : Bram Stoker, écrivain irlandais auteur de Dracula (° 8 novembre 1847).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9 mai : Carl Friese, acteur et metteur en scène allemand (° 5 octobre 1855).
 14 mai :
 Frédéric VIII, roi du Danemark (° 3 juin 1843).
 Nélie Jacquemart, peintre et collectionneuse d'art française (° 25 juillet 1841).
@@ -591,9 +778,43 @@
 Alphonse Hasselmans, compositeur, harpiste et pédagogue français d'origine belge (° 5 mars 1845).
 21 mai : Vincent Lorant-Heilbronn, peintre, illustrateur, affichiste, décorateur et réalisateur français (° 13 octobre 1874).
 25 mai : Armand Guéry, peintre français (° 4 mars 1853).
-26 mai : Jan Blockx, musicien belge (° 25 janvier 1851).
-Juin
-4 juin : Pauline Croizette, pastelliste et miniaturiste française (° 12 janvier 1839).
+26 mai : Jan Blockx, musicien belge (° 25 janvier 1851).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4 juin : Pauline Croizette, pastelliste et miniaturiste française (° 12 janvier 1839).
 6 juin : Charles André, astronome français et fondateur de l'observatoire de Lyon (° 14 mars 1842).
 11 juin :
 Quintino Bocaiúva, journaliste et homme politique brésilien (° 4 décembre 1836).
@@ -609,43 +830,281 @@
 22 juin : Michel Frédérick, coureur cycliste suisse (° 6 novembre 1872).
 23 juin : Louis Maurice Pierrey, peintre français (° 11 janvier 1858).
 25 juin : Sir Laurens Alma-Tadema, peintre britannique d'origine hollandaise (° 8 janvier 1836).
-29 juin : Fernand Defuisseaux, homme politique belge (° 4 janvier 1848).
-Juillet
-7 juillet : Louis Beysson, peintre et écrivain français (° 28 février 1856).
+29 juin : Fernand Defuisseaux, homme politique belge (° 4 janvier 1848).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7 juillet : Louis Beysson, peintre et écrivain français (° 28 février 1856).
 8 juillet : Robert Wiedemann Browning, peintre et critique d'art britannique (° 9 mars 1849).
 9 juillet : René Bedel, aviateur français (° 20 décembre 1886).
 17 juillet :
 Henri Poincaré, mathématicien, physicien, philosophe et ingénieur français (° 29 avril 1854).
 Bronisław Abramowicz, peintre polonais.
 23 juillet : Eugénie Salanson, peintre française (° 15 décembre 1836).
-30 juillet : Meiji, empereur du Japon de 1867 à sa mort en 1912 (° 3 novembre 1852).
-Août
-6 août : Joseph Delattre, peintre français (° 20 août 1858).
+30 juillet : Meiji, empereur du Japon de 1867 à sa mort en 1912 (° 3 novembre 1852).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6 août : Joseph Delattre, peintre français (° 20 août 1858).
 13 août : Errol Bouchette, sociologue, journaliste, avocat et bibliothécaire québécois (° 2 juin 1862).
 20 août : William Booth, pasteur méthodiste britannique, fondateur de l'Armée du salut (° 10 avril 1829).
-24 août : Carlo Chessa, peintre, graveur et illustrateur italien (° 12 novembre 1855).
-Septembre
-1er septembre : James Stewart Butters,  homme politique australien puis fidjien (° 19 février 1832).
+24 août : Carlo Chessa, peintre, graveur et illustrateur italien (° 12 novembre 1855).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : James Stewart Butters,  homme politique australien puis fidjien (° 19 février 1832).
 11 septembre : Pierre-Hector Coullié, cardinal français, archevêque de Lyon (° 15 mars 1829).
 24 septembre : Adolf Marschall von Bieberstein, homme politique et diplomate allemand (° 12 octobre 1842).
-29 septembre : Toyohara Chikanobu, peintre, dessinateur d'ukiyo-e japonais (° 26 septembre 1838).
-Octobre
-6 octobre : Auguste Beernaert, homme politique belge (° 26 juillet 1829).
+29 septembre : Toyohara Chikanobu, peintre, dessinateur d'ukiyo-e japonais (° 26 septembre 1838).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6 octobre : Auguste Beernaert, homme politique belge (° 26 juillet 1829).
 7 octobre : El Jerezano (Manuel Lara Reyes), matador espagnol (° 8 décembre 1867).
 10 octobre : Alpha Yaya Diallo, guerrier peul (° 1830).
-28 octobre : Edgar Tinel, compositeur et pianiste belge (° 27 mars 1854).
-Novembre
-6 novembre : Mykola Lyssenko, compositeur, pianiste, chef d'orchestre et ethnomusicologue ukrainien (° 22 mars 1842).
+28 octobre : Edgar Tinel, compositeur et pianiste belge (° 27 mars 1854).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6 novembre : Mykola Lyssenko, compositeur, pianiste, chef d'orchestre et ethnomusicologue ukrainien (° 22 mars 1842).
 10 novembre : Louis Cyr, homme fort canadien-français (° 10 octobre 1863).
 21 novembre : André Frey, aviateur français (° 22 janvier 1886).
 26 novembre :
 Henri Paillard, graveur, illustrateur et peintre français (° 6 mai 1846).
 Lemuel Cambridge Owen, premier ministre de l'Île-du-Prince-Édouard (° 1er novembre 1822).
-27 novembre : Otto Lüders, archéologue et diplomate allemand (° 13 août 1844).
-Décembre
-23 décembre : Édouard Detaille, peintre français (° 5 octobre 1848).
-Date inconnue
-Müfide Kadri, peintre ottomane (° 1889 ou 1890).</t>
+27 novembre : Otto Lüders, archéologue et diplomate allemand (° 13 août 1844).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>23 décembre : Édouard Detaille, peintre français (° 5 octobre 1848).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1912</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1912</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Müfide Kadri, peintre ottomane (° 1889 ou 1890).</t>
         </is>
       </c>
     </row>
